--- a/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B93987A-2E65-4DD1-9848-16AE175B274F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537D36B-59FD-47BD-B802-0E83E9864BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,22 @@
   </si>
   <si>
     <t>报表-直通车报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-品牌专区报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌专区报表-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" customWidth="1"/>
     <col min="4" max="4" width="16.08203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
@@ -445,6 +461,26 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537D36B-59FD-47BD-B802-0E83E9864BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FB08D-5048-46E0-9D41-2257729F4625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_read_file_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule_save_path_suffix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -419,9 +427,11 @@
     <col min="4" max="4" width="16.08203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -440,8 +450,14 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -461,7 +477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>

--- a/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FB08D-5048-46E0-9D41-2257729F4625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE6B66-CF8C-4083-B798-A9F5A1E21F85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,22 +416,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -457,7 +458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -477,7 +478,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>

--- a/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7FB08D-5048-46E0-9D41-2257729F4625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D177C2-56A3-4A9A-B041-760BF159249D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,50 @@
   </si>
   <si>
     <t>rule_save_path_suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-定向报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-明星店铺报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广计划列表-关键词-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车报表-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向报表-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-报表批量下载-历史分日数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-计划-点击-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-创意-点击-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-创意-展现-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌专区报表-展现-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星店铺报表-15天转化-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,10 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -462,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -476,24 +521,185 @@
       <c r="F2" s="1">
         <v>0.5</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.5</v>
       </c>
     </row>

--- a/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D177C2-56A3-4A9A-B041-760BF159249D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D8309-075F-4E8B-9DD1-D65BA2E60E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-直通车报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-品牌专区报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌专区报表-点击-15天转化-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-定向报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-明星店铺报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推广计划列表-关键词-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,27 +93,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-报表批量下载-历史分日数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表批量下载-计划-点击-日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表批量下载-创意-点击-日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表批量下载-创意-展现-日报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品牌专区报表-展现-15天转化-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明星店铺报表-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务记录-近7天-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-计划-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-创意-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载-创意-展现-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量报表下载-商品推广-计划-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量报表下载-直播推广-计划-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量报表下载-图文推广-计划-点击-15天转化-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销-营销工具-店铺券-日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车-报表-直通车报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车-报表-定向报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻展-报表-报表批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-报表-品牌专区报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-报表-明星店铺报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-账户-账户明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级推荐-报表-报表批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意参谋-营销-营销工具-店铺券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,11 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,247 +504,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4"/>
+    <col min="4" max="4" width="16.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.5</v>
       </c>
     </row>
